--- a/DFMTLU.xlsx
+++ b/DFMTLU.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="22944" windowHeight="9588" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="22944" windowHeight="9588" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Division I 2023" sheetId="1" r:id="rId1"/>
     <sheet name="GGUZZO Manu Bates FC 2022" sheetId="2" r:id="rId2"/>
     <sheet name="GUZZO MTLU RESERVE WINTER 2022 " sheetId="3" r:id="rId3"/>
     <sheet name="GGUZZO BULLDOGS" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="FC Rimbambiti" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Division I 2023'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'FC Rimbambiti'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'GGUZZO BULLDOGS'!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="108">
   <si>
     <t>Last Name</t>
   </si>
@@ -319,6 +320,33 @@
   </si>
   <si>
     <t>La Masia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primavera FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atalanta BC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan A </t>
+  </si>
+  <si>
+    <t>GQ United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nay Cathro FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proscuitto E Melone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcio E Pepe </t>
+  </si>
+  <si>
+    <t>Midnight Express</t>
+  </si>
+  <si>
+    <t>FC Vanessa</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2743,12 +2771,420 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>44630</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>44637</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>44665</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>